--- a/data/hotels_by_city/Houston/Houston_shard_562.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_562.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56690-d656290-Reviews-Rodeway_Inn-South_Houston_Texas.html</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Rodeway-Inn.h12755867.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531619194566&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=7279a73b-c31b-4446-a795-4745d2ad0e3f&amp;mctc=9&amp;exp_dp=46.75&amp;exp_ts=1531619195086&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,93 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d656290-r367606892-Rodeway_Inn-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56690</t>
+  </si>
+  <si>
+    <t>656290</t>
+  </si>
+  <si>
+    <t>367606892</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>peaceful stay</t>
+  </si>
+  <si>
+    <t>Peaceful place to stay at with no disturbance or nuisance.Tidy rooms with elegant furnishings.Friendly housekeeping staff.Usb ports in wall is GENIUS.Excellent internet speed.Nice comfy bed.Dominos literally next door is addded plus for pizza lovers.Beer shop literally next door is another big plus for beer lovers.What more can a person need in this world !!would hoghly recommend to one and all and looking forward to my next stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>manish p, Manager at Rodeway Inn, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Peaceful place to stay at with no disturbance or nuisance.Tidy rooms with elegant furnishings.Friendly housekeeping staff.Usb ports in wall is GENIUS.Excellent internet speed.Nice comfy bed.Dominos literally next door is addded plus for pizza lovers.Beer shop literally next door is another big plus for beer lovers.What more can a person need in this world !!would hoghly recommend to one and all and looking forward to my next stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d656290-r290505042-Rodeway_Inn-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290505042</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>i think this is a great place to stay I been staying here for a while on and off.  I been here with my family as well as stay for work. Management and the cleaning staff are always  friendly,the rooms are good and clean . At place you have every thing from ice machines to guest laundry rooms and the best of all clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>i think this is a great place to stay I been staying here for a while on and off.  I been here with my family as well as stay for work. Management and the cleaning staff are always  friendly,the rooms are good and clean . At place you have every thing from ice machines to guest laundry rooms and the best of all clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d656290-r278604061-Rodeway_Inn-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278604061</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>If you enjoy cockroaches and bad attitudes this place is for you!</t>
+  </si>
+  <si>
+    <t>Apparently this hotel has just recently been refurbished... I cant imagine what it looked like before, because it is extremely dirty.  There is a serious cockroach infestation and when I brought this up to management they told me, in a hurried tone, that someone would be coming to spray immediately.  No one ever showed or bothered to call to mitigate the issue.  There was cockroaches of all sizes and they were not scared to come out when the lights were on. I was checking out the following morning so I did not bring it up again.  The bed sheets, comforters and towels are stained and have holes and burn marks all over them.  I believe this is a family operated business and the matriarch of the family manages the hotel during the day.  This womans attitude is unbelievable.  The kind of person where they have the ability to turn any seemingly benign comment into a reason to make you feel stupid.  However, the man who works in the evenings is very nice and accommodating where as the woman you cant help but get the feeling she would enjoy her job if it wasnt for those pesky customers!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Apparently this hotel has just recently been refurbished... I cant imagine what it looked like before, because it is extremely dirty.  There is a serious cockroach infestation and when I brought this up to management they told me, in a hurried tone, that someone would be coming to spray immediately.  No one ever showed or bothered to call to mitigate the issue.  There was cockroaches of all sizes and they were not scared to come out when the lights were on. I was checking out the following morning so I did not bring it up again.  The bed sheets, comforters and towels are stained and have holes and burn marks all over them.  I believe this is a family operated business and the matriarch of the family manages the hotel during the day.  This womans attitude is unbelievable.  The kind of person where they have the ability to turn any seemingly benign comment into a reason to make you feel stupid.  However, the man who works in the evenings is very nice and accommodating where as the woman you cant help but get the feeling she would enjoy her job if it wasnt for those pesky customers!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +628,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +660,270 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62098</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62098</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62098</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_562.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_562.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d656290-r561963548-Rodeway_Inn-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56690</t>
+  </si>
+  <si>
+    <t>656290</t>
+  </si>
+  <si>
+    <t>561963548</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Budget hotel with roll-in shower</t>
+  </si>
+  <si>
+    <t>This budget hotel room was clean.  There is coffee available, but no breakfast, shampoo  or hair conditioner.  There was a microwave, frig, and TV with lots of channels.  There were two additional comfortable chairs and a sofa long enough to take a nap or serve as an alternate sleeping space. It was a bit noisy in the early evening, but quieted down by 9:00 p.m.  There was parking right outside our handicap room.  Keesha in the office was helpful.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d656290-r383585960-Rodeway_Inn-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383585960</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>worth it</t>
+  </si>
+  <si>
+    <t>i stayed here for two nights. The motel is great to stay. Nice comforter &amp; Clean room. worth staying here. I came here to have a trip with my friends.The management helped me to find the best places near by. The Guy at front desk is very friendly. I see most of the hotels doesn't have a good Wi-fi. This motel satisfied me. the only thing i am not satisfied is the food. there is just one domino's beside this motel.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d656290-r367606892-Rodeway_Inn-South_Houston_Texas.html</t>
   </si>
   <si>
-    <t>56690</t>
-  </si>
-  <si>
-    <t>656290</t>
-  </si>
-  <si>
     <t>367606892</t>
   </si>
   <si>
@@ -231,10 +273,22 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Apparently this hotel has just recently been refurbished... I cant imagine what it looked like before, because it is extremely dirty.  There is a serious cockroach infestation and when I brought this up to management they told me, in a hurried tone, that someone would be coming to spray immediately.  No one ever showed or bothered to call to mitigate the issue.  There was cockroaches of all sizes and they were not scared to come out when the lights were on. I was checking out the following morning so I did not bring it up again.  The bed sheets, comforters and towels are stained and have holes and burn marks all over them.  I believe this is a family operated business and the matriarch of the family manages the hotel during the day.  This womans attitude is unbelievable.  The kind of person where they have the ability to turn any seemingly benign comment into a reason to make you feel stupid.  However, the man who works in the evenings is very nice and accommodating where as the woman you cant help but get the feeling she would enjoy her job if it wasnt for those pesky customers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56690-d656290-r218357044-Rodeway_Inn-South_Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218357044</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t>I think the news should be brought to this place. The website is a lie. every room we have been moved to is horrible. Roaches. Light sockets exposed with toilet paper stuffed in whole. ( which is a FIRE HAZARD) .wires exposed. Shower head an fauset broke. Airconditioner could easily be pushed out ( not properly bolted in) you could see outside from inside threw a/c. Carpets untacked! Highly NOT recommended. The price is not even worth it!! (I will also submit pictures!</t>
   </si>
 </sst>
 </file>
@@ -769,7 +823,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -777,23 +831,25 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -809,7 +865,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -818,34 +874,34 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
         <v>5</v>
       </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -853,14 +909,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +928,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -885,45 +937,236 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62098</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62098</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62098</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
